--- a/docs/PTA2_DDC_80/PTA2_DDC_80_30.07.24v_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731783299.1382027</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731783300.290287</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783299.1382027.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783300.290287.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.12</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731783303.0105298</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731783303.0105298.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731783303.0105298.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>291.01</v>
       </c>
-      <c r="J4" t="n">
-        <v>291.01</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>289.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.610000000000014</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731783309.278879</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731783311.8865435</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731783309.278879.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731783311.8865435.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.47</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731783315.9200866</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731783316.1155665</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783315.9200866.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783316.1155665.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6801.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>7</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731783316.4652662</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731783317.6575272</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783316.4652662.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783317.6575272.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6807.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6804.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731783323.4459724</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731783326.313295</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731783323.4459724.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731783326.313295.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>511.3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>512.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.8499999999999659</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731783326.8158088</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731783326.8158088.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731783326.8158088.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>511.75</v>
       </c>
-      <c r="J9" t="n">
-        <v>511.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>511.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731783329.504313</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731783330.4082105</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783329.504313.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783330.4082105.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1044.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1047.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>2.600000000000136</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731783331.5349963</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731783331.8714035</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783331.5349963.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783331.8714035.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1048.6</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1046.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731783333.299689</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731783334.4740381</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783333.299689.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783334.4740381.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1044.6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1046</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1043,95 +1119,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731783334.840661</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731783334.840661.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731783334.840661.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1046.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>1046.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1047.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731783338.2924166</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731783338.5871491</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731783338.2924166.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731783338.5871491.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.66</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1139,95 +1227,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731783340.900203</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731783340.900203.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731783340.900203.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.36</v>
       </c>
-      <c r="J15" t="n">
-        <v>127.36</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>127.38</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731783343.3473303</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731783345.3449557</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731783343.3473303.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731783345.3449557.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>166.3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>166.22</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1235,95 +1335,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731783346.0581484</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731783346.0581484.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731783346.0581484.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>166</v>
       </c>
-      <c r="J17" t="n">
-        <v>166</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>165.68</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731783347.6581087</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731783348.3665051</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731783347.6581087.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731783348.3665051.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>51.675</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>51.66</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1331,95 +1443,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731783351.4772725</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731783351.4772725.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731783351.4772725.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>51.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>51.37</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.1300000000000026</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731783355.5987933</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731783357.9144435</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731783355.5987933.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731783357.9144435.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1421.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1420.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1427,95 +1551,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731783358.099433</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731783358.099433.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731783358.099433.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1419.4</v>
       </c>
-      <c r="J21" t="n">
-        <v>1419.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1420</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731783362.301597</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731783363.050428</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783362.301597.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783363.050428.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>60.44</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>60.57</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1523,51 +1659,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731783366.0718682</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731783366.9443135</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783366.0718682.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783366.9443135.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>60.49</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>60.58</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1575,95 +1717,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731783367.597504</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731783367.597504.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731783367.597504.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>60.44</v>
       </c>
-      <c r="J24" t="n">
-        <v>60.44</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>60.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731783372.5455327</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731783372.9763784</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731783372.5455327.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731783372.9763784.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>141.72</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>141.36</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1671,95 +1825,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731783373.6595232</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731783373.6595232.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731783373.6595232.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>140.98</v>
       </c>
-      <c r="J26" t="n">
-        <v>140.98</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>140.78</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731783377.7107525</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731783378.1684997</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731783377.7107525.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731783378.1684997.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>54.16</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>53.99</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1767,51 +1933,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731783379.2286925</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731783381.0757494</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731783379.2286925.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731783381.0757494.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>53.93</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>53.96</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1819,95 +1991,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731783383.0843756</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731783383.0843756.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731783383.0843756.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>53.57</v>
       </c>
-      <c r="J29" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>53.51</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731783384.0091815</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731783387.279414</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731783384.0091815.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731783387.279414.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>375.33</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>374.55</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.7799999999999727</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1915,95 +2099,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731783388.751195</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731783388.751195.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731783388.751195.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>374</v>
       </c>
-      <c r="J31" t="n">
-        <v>374</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>371.92</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-2.079999999999984</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731783392.857271</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731783393.384824</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731783392.857271.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731783393.384824.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>3024.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>3021.75</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.849999999999909</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2011,51 +2207,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731783396.1932397</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731783396.2826972</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MXI1731783396.1932397.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MXI1731783396.2826972.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>3027</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>3019.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>7.199999999999818</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2063,95 +2265,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731783396.2966604</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731783396.2966604.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731783396.2966604.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>3019.8</v>
       </c>
-      <c r="J34" t="n">
-        <v>3019.8</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3018.15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1.650000000000091</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731783399.808384</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731783401.563199</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783399.808384.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783401.563199.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>34.535</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>34.595</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2159,51 +2373,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731783402.8446097</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731783403.1251822</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783402.8446097.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783403.1251822.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>34.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>34.525</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.07500000000000284</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2211,51 +2431,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731783404.6214101</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731783405.8827622</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783404.6214101.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783405.8827622.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>34.38</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>34.52</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2263,51 +2489,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731783409.0187938</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731783409.339089</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783409.0187938.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783409.339089.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>640.1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>640.5</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2315,51 +2547,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731783409.8142169</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731783410.8332045</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783409.8142169.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783410.8332045.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>640</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>640.5</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2367,51 +2605,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731783411.332344</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731783411.6679897</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783411.332344.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783411.6679897.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>640.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>640.1</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.5</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2419,51 +2663,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731783411.7079844</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731783411.7988803</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783411.7079844.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731783411.7988803.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>640</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>640.5</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.5</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2471,43 +2721,49 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731783412.884923</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731783412.884923.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731783412.884923.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>640.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>640.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2591,19 +2847,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.400000000000091</v>
+        <v>5.600000000000136</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.600000000000023</v>
+        <v>1.400000000000034</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -2613,19 +2869,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1999999999999957</v>
+        <v>0.1399999999999935</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06666666666666525</v>
+        <v>0.04666666666666449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -2635,19 +2891,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07333333333333296</v>
+        <v>0.05999999999999991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -2679,19 +2935,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.04999999999973</v>
+        <v>8.399999999999636</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3.349999999999909</v>
+        <v>2.799999999999879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -2723,19 +2979,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01500000000000057</v>
+        <v>-0.115000000000002</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007500000000000284</v>
+        <v>-0.05750000000000099</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03</v>
+        <v>-0.22</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="10">
@@ -2745,19 +3001,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07999999999999829</v>
+        <v>0.08999999999999631</v>
       </c>
       <c r="E10" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
@@ -2767,19 +3023,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08000000000001251</v>
+        <v>-0.2399999999999807</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04000000000000625</v>
+        <v>-0.1199999999999903</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2789,19 +3045,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.8499999999999659</v>
+        <v>-1.499999999999943</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4249999999999829</v>
+        <v>-0.7499999999999716</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.17</v>
+        <v>-0.3</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="13">
@@ -2811,19 +3067,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.399999999999864</v>
+        <v>1.999999999999773</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6999999999999318</v>
+        <v>0.9999999999998863</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2833,19 +3089,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5600000000000023</v>
+        <v>-1.050000000000011</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2800000000000011</v>
+        <v>-0.5250000000000057</v>
       </c>
       <c r="E14" t="n">
-        <v>0.19</v>
+        <v>-0.3599999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="15">
@@ -2855,19 +3111,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3599999999999852</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1799999999999926</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
@@ -2877,19 +3133,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7799999999999727</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3899999999999864</v>
+        <v>-0.6500000000000057</v>
       </c>
       <c r="E16" t="n">
-        <v>0.21</v>
+        <v>-0.35</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="17">
